--- a/进度.xlsx
+++ b/进度.xlsx
@@ -965,7 +965,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -999,6 +999,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,10 +1121,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1129,7 +1135,15 @@
     <cellStyle name="常规 3 7" xfId="2"/>
     <cellStyle name="常规 8" xfId="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1459,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1481,352 +1495,352 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>60</v>
+        <v>5</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>64</v>
+        <v>31</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>56</v>
+        <v>37</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>32</v>
+        <v>76</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>16</v>
+        <v>45</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>38</v>
+        <v>63</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>40</v>
+        <v>80</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>270</v>
+      <c r="A40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>272</v>
+      <c r="A41" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>274</v>
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="25" t="s">
-        <v>41</v>
+        <v>269</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>42</v>
+      <c r="A44" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>78</v>
+      <c r="A45" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1838,8 +1852,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B47">
-    <sortCondition ref="A29"/>
+  <sortState ref="A2:B46">
+    <sortCondition sortBy="cellColor" ref="B2:B46" dxfId="1"/>
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/进度.xlsx
+++ b/进度.xlsx
@@ -18,7 +18,7 @@
     <sheet name="2019 Nat Med" sheetId="6" r:id="rId4"/>
     <sheet name="抗体标记预约" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="283">
   <si>
     <t>序号</t>
   </si>
@@ -878,6 +878,68 @@
   </si>
   <si>
     <t>cisplatin</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CD123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>IL-3R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>数据量偏少</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>精度偏低，98%</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD39</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>建模不要用该marker</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>精度略低与99%</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达连续，精度97</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳性数太少了</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -885,7 +947,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -963,6 +1025,32 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1048,7 +1136,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1115,17 +1203,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1135,19 +1235,11 @@
     <cellStyle name="常规 3 7" xfId="2"/>
     <cellStyle name="常规 8" xfId="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
+          <fgColor rgb="FF92D050"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -1471,392 +1563,456 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:B35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="21"/>
     <col min="2" max="2" width="16.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.875" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C1" s="27"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="27"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="27"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="27"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B7" s="25" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B8" s="23" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B9" s="23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B10" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B11" s="23" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="C11" s="27"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B12" s="23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="C12" s="27"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B13" s="23" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B14" s="29" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="C14" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B15" s="29" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="C15" s="27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B16" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" s="27"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B17" s="23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="C17" s="27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B18" s="23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="C18" s="27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B19" s="23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="C19" s="27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B20" s="23" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="C20" s="27"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B21" s="23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="C21" s="27"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B22" s="23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="C22" s="27"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B23" s="23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="C23" s="27"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B24" s="23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="C24" s="27"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B25" s="23" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="C25" s="27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B26" s="23" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="C26" s="27"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B27" s="23" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="C27" s="27"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B28" s="23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="C28" s="27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B29" s="23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="C29" s="27"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B30" s="23" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="C30" s="27"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B31" s="23" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="C31" s="27"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B32" s="29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="C32" s="27"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B33" s="23" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="C33" s="27"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B34" s="23" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="C34" s="27"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B35" s="25" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="C35" s="27"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="25" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="C36" s="27"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="C37" s="27"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="C38" s="27"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="22" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="C39" s="27"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="26" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="C40" s="27"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="26" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="C41" s="27"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="26" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" s="27"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>269</v>
       </c>
       <c r="B43" s="24" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="C43" s="27"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="24" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="C44" s="27"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
         <v>273</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="24" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
+      <c r="C45" s="27"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="24" t="s">
         <v>268</v>
       </c>
+      <c r="C46" s="27"/>
     </row>
   </sheetData>
-  <sortState ref="A2:B46">
-    <sortCondition sortBy="cellColor" ref="B2:B46" dxfId="1"/>
+  <sortState ref="A2:C46">
+    <sortCondition sortBy="cellColor" ref="B2:B46" dxfId="0"/>
   </sortState>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/进度.xlsx
+++ b/进度.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="285">
   <si>
     <t>序号</t>
   </si>
@@ -940,6 +940,14 @@
   </si>
   <si>
     <t>阳性数太少了</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>精度低95%</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>一刀切</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1136,7 +1144,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1212,9 +1220,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1224,7 +1229,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1565,15 +1570,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="21"/>
     <col min="2" max="2" width="16.25" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.875" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.875" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1583,7 +1588,7 @@
       <c r="B1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="27"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
@@ -1592,7 +1597,7 @@
       <c r="B2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="27"/>
+      <c r="C2" s="26"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
@@ -1601,7 +1606,7 @@
       <c r="B3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>276</v>
       </c>
     </row>
@@ -1612,7 +1617,7 @@
       <c r="B4" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
@@ -1621,7 +1626,7 @@
       <c r="B5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="26"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
@@ -1630,16 +1635,18 @@
       <c r="B6" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="26"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="26" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
@@ -1648,7 +1655,7 @@
       <c r="B8" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="27"/>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -1657,7 +1664,7 @@
       <c r="B9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="26"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -1666,7 +1673,7 @@
       <c r="B10" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="26"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
@@ -1675,7 +1682,7 @@
       <c r="B11" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
@@ -1684,7 +1691,7 @@
       <c r="B12" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="26"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
@@ -1693,16 +1700,16 @@
       <c r="B13" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="26"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="26" t="s">
         <v>282</v>
       </c>
     </row>
@@ -1710,10 +1717,10 @@
       <c r="A15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>277</v>
       </c>
     </row>
@@ -1724,7 +1731,7 @@
       <c r="B16" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="26"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
@@ -1733,7 +1740,7 @@
       <c r="B17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="26" t="s">
         <v>280</v>
       </c>
     </row>
@@ -1744,7 +1751,7 @@
       <c r="B18" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>279</v>
       </c>
     </row>
@@ -1755,7 +1762,7 @@
       <c r="B19" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="26" t="s">
         <v>281</v>
       </c>
     </row>
@@ -1766,7 +1773,7 @@
       <c r="B20" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
@@ -1775,7 +1782,7 @@
       <c r="B21" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="26"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
@@ -1784,7 +1791,7 @@
       <c r="B22" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="26"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
@@ -1793,7 +1800,7 @@
       <c r="B23" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="26"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
@@ -1802,7 +1809,7 @@
       <c r="B24" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="27"/>
+      <c r="C24" s="26"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
@@ -1811,7 +1818,7 @@
       <c r="B25" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="26" t="s">
         <v>279</v>
       </c>
     </row>
@@ -1822,7 +1829,7 @@
       <c r="B26" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="27"/>
+      <c r="C26" s="26"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
@@ -1831,7 +1838,7 @@
       <c r="B27" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="26"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
@@ -1840,7 +1847,7 @@
       <c r="B28" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="26" t="s">
         <v>279</v>
       </c>
     </row>
@@ -1851,7 +1858,7 @@
       <c r="B29" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="26"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
@@ -1860,7 +1867,7 @@
       <c r="B30" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="27"/>
+      <c r="C30" s="26"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
@@ -1869,16 +1876,18 @@
       <c r="B31" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="27"/>
+      <c r="C31" s="26"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="26" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
@@ -1887,7 +1896,7 @@
       <c r="B33" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="27"/>
+      <c r="C33" s="26"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
@@ -1896,43 +1905,43 @@
       <c r="B34" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="27"/>
+      <c r="C34" s="26"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="27"/>
+      <c r="C35" s="26"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="27"/>
+      <c r="C36" s="26"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="27"/>
+      <c r="C37" s="26"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="27"/>
+      <c r="C38" s="26"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
@@ -1941,34 +1950,34 @@
       <c r="B39" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="27"/>
+      <c r="C39" s="26"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="27"/>
+      <c r="C40" s="26"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="27"/>
+      <c r="C41" s="26"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="27"/>
+      <c r="C42" s="26"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
@@ -1977,7 +1986,7 @@
       <c r="B43" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="C43" s="27"/>
+      <c r="C43" s="26"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
@@ -1986,7 +1995,7 @@
       <c r="B44" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="C44" s="27"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
@@ -1995,7 +2004,7 @@
       <c r="B45" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="C45" s="27"/>
+      <c r="C45" s="26"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
@@ -2004,7 +2013,7 @@
       <c r="B46" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="C46" s="27"/>
+      <c r="C46" s="26"/>
     </row>
   </sheetData>
   <sortState ref="A2:C46">
